--- a/artfynd/A 53363-2022.xlsx
+++ b/artfynd/A 53363-2022.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107112137</v>
+        <v>107112104</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>477560.0884589356</v>
+        <v>477406.0814757654</v>
       </c>
       <c r="R3" t="n">
-        <v>7055447.611681611</v>
+        <v>7055704.823884817</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107112138</v>
+        <v>107112072</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>477531.4641039427</v>
+        <v>477429.2820145873</v>
       </c>
       <c r="R4" t="n">
-        <v>7055429.583046003</v>
+        <v>7055524.133005257</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107112126</v>
+        <v>107112070</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>477525.8721759706</v>
+        <v>477432.9989420259</v>
       </c>
       <c r="R5" t="n">
-        <v>7055394.493573721</v>
+        <v>7055545.894651693</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107112121</v>
+        <v>107112108</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>477506.7800016608</v>
+        <v>477618.8960323695</v>
       </c>
       <c r="R6" t="n">
-        <v>7055464.886846316</v>
+        <v>7055641.509534359</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107112104</v>
+        <v>107112113</v>
       </c>
       <c r="B7" t="n">
         <v>78569</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>477406.0814757654</v>
+        <v>477452.2075505896</v>
       </c>
       <c r="R7" t="n">
-        <v>7055704.823884817</v>
+        <v>7055617.346403394</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107112117</v>
+        <v>107112039</v>
       </c>
       <c r="B8" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,34 +1368,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>477502.5485816749</v>
+        <v>477509.3910873273</v>
       </c>
       <c r="R8" t="n">
-        <v>7055496.043275498</v>
+        <v>7055519.116985272</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1438,6 +1442,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,10 +1473,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107112072</v>
+        <v>107112107</v>
       </c>
       <c r="B9" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1489,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1513,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>477429.2820145873</v>
+        <v>477611.8551201055</v>
       </c>
       <c r="R9" t="n">
-        <v>7055524.133005257</v>
+        <v>7055716.257913383</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1585,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107112124</v>
+        <v>107112116</v>
       </c>
       <c r="B10" t="n">
         <v>78569</v>
@@ -1616,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>477535.3798649331</v>
+        <v>477426.1717684313</v>
       </c>
       <c r="R10" t="n">
-        <v>7055416.659838526</v>
+        <v>7055525.044468692</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107112077</v>
+        <v>107112133</v>
       </c>
       <c r="B11" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1713,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1737,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>477525.0100635685</v>
+        <v>477562.5450946799</v>
       </c>
       <c r="R11" t="n">
-        <v>7055398.501757194</v>
+        <v>7055731.723995223</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1809,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107112070</v>
+        <v>107112110</v>
       </c>
       <c r="B12" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1825,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1849,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>477432.9989420259</v>
+        <v>477525.4374735313</v>
       </c>
       <c r="R12" t="n">
-        <v>7055545.894651693</v>
+        <v>7055584.367129061</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,7 +1921,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107112076</v>
+        <v>107112068</v>
       </c>
       <c r="B13" t="n">
         <v>78570</v>
@@ -1952,10 +1961,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>477503.1329211274</v>
+        <v>477536.6048297759</v>
       </c>
       <c r="R13" t="n">
-        <v>7055452.906751771</v>
+        <v>7055652.318414057</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,7 +2033,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>107112118</v>
+        <v>107112112</v>
       </c>
       <c r="B14" t="n">
         <v>78569</v>
@@ -2064,10 +2073,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>477530.8636118677</v>
+        <v>477523.9529894217</v>
       </c>
       <c r="R14" t="n">
-        <v>7055470.496669282</v>
+        <v>7055626.174316422</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,7 +2145,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>107112108</v>
+        <v>107112102</v>
       </c>
       <c r="B15" t="n">
         <v>78569</v>
@@ -2176,10 +2185,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>477618.8960323695</v>
+        <v>477405.4953640634</v>
       </c>
       <c r="R15" t="n">
-        <v>7055641.509534359</v>
+        <v>7055747.512416334</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,10 +2257,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107112113</v>
+        <v>107112135</v>
       </c>
       <c r="B16" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2273,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2297,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>477452.2075505896</v>
+        <v>477498.2951514429</v>
       </c>
       <c r="R16" t="n">
-        <v>7055617.346403394</v>
+        <v>7055524.086966835</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,10 +2369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107112119</v>
+        <v>107112038</v>
       </c>
       <c r="B17" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,34 +2385,42 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477495.734390176</v>
+        <v>477482.6016969394</v>
       </c>
       <c r="R17" t="n">
-        <v>7055476.971182949</v>
+        <v>7055508.635393227</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2446,6 +2463,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2472,10 +2494,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>107112127</v>
+        <v>107112134</v>
       </c>
       <c r="B18" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2510,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2534,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477522.7743878288</v>
+        <v>477566.4463293387</v>
       </c>
       <c r="R18" t="n">
-        <v>7055397.183587011</v>
+        <v>7055653.88560549</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2584,10 +2606,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>107112039</v>
+        <v>107112111</v>
       </c>
       <c r="B19" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,38 +2622,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477509.3910873273</v>
+        <v>477537.1895849766</v>
       </c>
       <c r="R19" t="n">
-        <v>7055519.116985272</v>
+        <v>7055609.184021487</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2674,11 +2692,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2705,7 +2718,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>107112107</v>
+        <v>107112106</v>
       </c>
       <c r="B20" t="n">
         <v>78569</v>
@@ -2745,10 +2758,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477611.8551201055</v>
+        <v>477421.3530807599</v>
       </c>
       <c r="R20" t="n">
-        <v>7055716.257913383</v>
+        <v>7055661.14085223</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2817,7 +2830,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>107112116</v>
+        <v>107112109</v>
       </c>
       <c r="B21" t="n">
         <v>78569</v>
@@ -2857,10 +2870,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477426.1717684313</v>
+        <v>477534.8239992961</v>
       </c>
       <c r="R21" t="n">
-        <v>7055525.044468692</v>
+        <v>7055652.331036292</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2929,10 +2942,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107112133</v>
+        <v>107112069</v>
       </c>
       <c r="B22" t="n">
-        <v>77506</v>
+        <v>78570</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2945,21 +2958,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2969,10 +2982,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477562.5450946799</v>
+        <v>477534.0825439893</v>
       </c>
       <c r="R22" t="n">
-        <v>7055731.723995223</v>
+        <v>7055610.539977368</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3041,10 +3054,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>107112110</v>
+        <v>107112040</v>
       </c>
       <c r="B23" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3057,34 +3070,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477525.4374735313</v>
+        <v>477517.4146231763</v>
       </c>
       <c r="R23" t="n">
-        <v>7055584.367129061</v>
+        <v>7055520.394034193</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3127,6 +3148,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3153,10 +3179,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>107112068</v>
+        <v>107112137</v>
       </c>
       <c r="B24" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3169,21 +3195,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3193,10 +3219,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477536.6048297759</v>
+        <v>477560.0884589356</v>
       </c>
       <c r="R24" t="n">
-        <v>7055652.318414057</v>
+        <v>7055447.611681611</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3265,10 +3291,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>107112122</v>
+        <v>107112138</v>
       </c>
       <c r="B25" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3281,21 +3307,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3305,10 +3331,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477504.0044578151</v>
+        <v>477531.4641039427</v>
       </c>
       <c r="R25" t="n">
-        <v>7055450.232564858</v>
+        <v>7055429.583046003</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3377,7 +3403,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>107112112</v>
+        <v>107112126</v>
       </c>
       <c r="B26" t="n">
         <v>78569</v>
@@ -3417,10 +3443,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>477523.9529894217</v>
+        <v>477525.8721759706</v>
       </c>
       <c r="R26" t="n">
-        <v>7055626.174316422</v>
+        <v>7055394.493573721</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3489,7 +3515,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>107112102</v>
+        <v>107112121</v>
       </c>
       <c r="B27" t="n">
         <v>78569</v>
@@ -3529,10 +3555,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477405.4953640634</v>
+        <v>477506.7800016608</v>
       </c>
       <c r="R27" t="n">
-        <v>7055747.512416334</v>
+        <v>7055464.886846316</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3601,10 +3627,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>107112135</v>
+        <v>107112117</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3617,21 +3643,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3641,10 +3667,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>477498.2951514429</v>
+        <v>477502.5485816749</v>
       </c>
       <c r="R28" t="n">
-        <v>7055524.086966835</v>
+        <v>7055496.043275498</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3713,10 +3739,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>107112041</v>
+        <v>107112124</v>
       </c>
       <c r="B29" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3729,38 +3755,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477516.4363721663</v>
+        <v>477535.3798649331</v>
       </c>
       <c r="R29" t="n">
-        <v>7055445.253015221</v>
+        <v>7055416.659838526</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3803,11 +3825,6 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3834,10 +3851,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>107112123</v>
+        <v>107112077</v>
       </c>
       <c r="B30" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3850,21 +3867,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3874,10 +3891,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>477531.498774925</v>
+        <v>477525.0100635685</v>
       </c>
       <c r="R30" t="n">
-        <v>7055434.47416525</v>
+        <v>7055398.501757194</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3946,10 +3963,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>107112038</v>
+        <v>107112076</v>
       </c>
       <c r="B31" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3962,42 +3979,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>477482.6016969394</v>
+        <v>477503.1329211274</v>
       </c>
       <c r="R31" t="n">
-        <v>7055508.635393227</v>
+        <v>7055452.906751771</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4040,11 +4049,6 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4071,10 +4075,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>107112134</v>
+        <v>107112118</v>
       </c>
       <c r="B32" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4087,21 +4091,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4111,10 +4115,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>477566.4463293387</v>
+        <v>477530.8636118677</v>
       </c>
       <c r="R32" t="n">
-        <v>7055653.88560549</v>
+        <v>7055470.496669282</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4183,7 +4187,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>107112111</v>
+        <v>107112119</v>
       </c>
       <c r="B33" t="n">
         <v>78569</v>
@@ -4223,10 +4227,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>477537.1895849766</v>
+        <v>477495.734390176</v>
       </c>
       <c r="R33" t="n">
-        <v>7055609.184021487</v>
+        <v>7055476.971182949</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4295,7 +4299,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>107112106</v>
+        <v>107112127</v>
       </c>
       <c r="B34" t="n">
         <v>78569</v>
@@ -4335,10 +4339,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>477421.3530807599</v>
+        <v>477522.7743878288</v>
       </c>
       <c r="R34" t="n">
-        <v>7055661.14085223</v>
+        <v>7055397.183587011</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4407,10 +4411,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>107112075</v>
+        <v>107112122</v>
       </c>
       <c r="B35" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4423,21 +4427,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4447,10 +4451,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>477504.3515901188</v>
+        <v>477504.0044578151</v>
       </c>
       <c r="R35" t="n">
-        <v>7055499.143101555</v>
+        <v>7055450.232564858</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4519,10 +4523,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>107112109</v>
+        <v>107112041</v>
       </c>
       <c r="B36" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4535,34 +4539,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>477534.8239992961</v>
+        <v>477516.4363721663</v>
       </c>
       <c r="R36" t="n">
-        <v>7055652.331036292</v>
+        <v>7055445.253015221</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4605,6 +4613,11 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4631,7 +4644,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>107112120</v>
+        <v>107112123</v>
       </c>
       <c r="B37" t="n">
         <v>78569</v>
@@ -4671,10 +4684,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477497.006951978</v>
+        <v>477531.498774925</v>
       </c>
       <c r="R37" t="n">
-        <v>7055468.068868866</v>
+        <v>7055434.47416525</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4743,7 +4756,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107112069</v>
+        <v>107112075</v>
       </c>
       <c r="B38" t="n">
         <v>78570</v>
@@ -4783,10 +4796,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>477534.0825439893</v>
+        <v>477504.3515901188</v>
       </c>
       <c r="R38" t="n">
-        <v>7055610.539977368</v>
+        <v>7055499.143101555</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4855,10 +4868,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>107112136</v>
+        <v>107112120</v>
       </c>
       <c r="B39" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4871,21 +4884,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4895,10 +4908,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>477584.4676857276</v>
+        <v>477497.006951978</v>
       </c>
       <c r="R39" t="n">
-        <v>7055495.018222877</v>
+        <v>7055468.068868866</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4967,10 +4980,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>107112040</v>
+        <v>107112136</v>
       </c>
       <c r="B40" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4983,42 +4996,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>477517.4146231763</v>
+        <v>477584.4676857276</v>
       </c>
       <c r="R40" t="n">
-        <v>7055520.394034193</v>
+        <v>7055495.018222877</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5061,11 +5066,6 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 53363-2022.xlsx
+++ b/artfynd/A 53363-2022.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107112104</v>
+        <v>107112137</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>477406.0814757654</v>
+        <v>477560.0884589356</v>
       </c>
       <c r="R3" t="n">
-        <v>7055704.823884817</v>
+        <v>7055447.611681611</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107112072</v>
+        <v>107112138</v>
       </c>
       <c r="B4" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>477429.2820145873</v>
+        <v>477531.4641039427</v>
       </c>
       <c r="R4" t="n">
-        <v>7055524.133005257</v>
+        <v>7055429.583046003</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107112070</v>
+        <v>107112126</v>
       </c>
       <c r="B5" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>477432.9989420259</v>
+        <v>477525.8721759706</v>
       </c>
       <c r="R5" t="n">
-        <v>7055545.894651693</v>
+        <v>7055394.493573721</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107112108</v>
+        <v>107112121</v>
       </c>
       <c r="B6" t="n">
         <v>78569</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>477618.8960323695</v>
+        <v>477506.7800016608</v>
       </c>
       <c r="R6" t="n">
-        <v>7055641.509534359</v>
+        <v>7055464.886846316</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107112113</v>
+        <v>107112104</v>
       </c>
       <c r="B7" t="n">
         <v>78569</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>477452.2075505896</v>
+        <v>477406.0814757654</v>
       </c>
       <c r="R7" t="n">
-        <v>7055617.346403394</v>
+        <v>7055704.823884817</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107112039</v>
+        <v>107112117</v>
       </c>
       <c r="B8" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,38 +1368,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>477509.3910873273</v>
+        <v>477502.5485816749</v>
       </c>
       <c r="R8" t="n">
-        <v>7055519.116985272</v>
+        <v>7055496.043275498</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1442,11 +1438,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1473,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107112107</v>
+        <v>107112072</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1513,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>477611.8551201055</v>
+        <v>477429.2820145873</v>
       </c>
       <c r="R9" t="n">
-        <v>7055716.257913383</v>
+        <v>7055524.133005257</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107112116</v>
+        <v>107112124</v>
       </c>
       <c r="B10" t="n">
         <v>78569</v>
@@ -1625,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>477426.1717684313</v>
+        <v>477535.3798649331</v>
       </c>
       <c r="R10" t="n">
-        <v>7055525.044468692</v>
+        <v>7055416.659838526</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107112133</v>
+        <v>107112077</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>78570</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1737,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>477562.5450946799</v>
+        <v>477525.0100635685</v>
       </c>
       <c r="R11" t="n">
-        <v>7055731.723995223</v>
+        <v>7055398.501757194</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1809,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107112110</v>
+        <v>107112070</v>
       </c>
       <c r="B12" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1825,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1849,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>477525.4374735313</v>
+        <v>477432.9989420259</v>
       </c>
       <c r="R12" t="n">
-        <v>7055584.367129061</v>
+        <v>7055545.894651693</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1921,7 +1912,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107112068</v>
+        <v>107112076</v>
       </c>
       <c r="B13" t="n">
         <v>78570</v>
@@ -1961,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>477536.6048297759</v>
+        <v>477503.1329211274</v>
       </c>
       <c r="R13" t="n">
-        <v>7055652.318414057</v>
+        <v>7055452.906751771</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2033,7 +2024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>107112112</v>
+        <v>107112118</v>
       </c>
       <c r="B14" t="n">
         <v>78569</v>
@@ -2073,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>477523.9529894217</v>
+        <v>477530.8636118677</v>
       </c>
       <c r="R14" t="n">
-        <v>7055626.174316422</v>
+        <v>7055470.496669282</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2145,7 +2136,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>107112102</v>
+        <v>107112108</v>
       </c>
       <c r="B15" t="n">
         <v>78569</v>
@@ -2185,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>477405.4953640634</v>
+        <v>477618.8960323695</v>
       </c>
       <c r="R15" t="n">
-        <v>7055747.512416334</v>
+        <v>7055641.509534359</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2257,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107112135</v>
+        <v>107112113</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2273,21 +2264,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2297,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>477498.2951514429</v>
+        <v>477452.2075505896</v>
       </c>
       <c r="R16" t="n">
-        <v>7055524.086966835</v>
+        <v>7055617.346403394</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2369,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107112038</v>
+        <v>107112119</v>
       </c>
       <c r="B17" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2385,42 +2376,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477482.6016969394</v>
+        <v>477495.734390176</v>
       </c>
       <c r="R17" t="n">
-        <v>7055508.635393227</v>
+        <v>7055476.971182949</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2463,11 +2446,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2494,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>107112134</v>
+        <v>107112127</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2510,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2534,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477566.4463293387</v>
+        <v>477522.7743878288</v>
       </c>
       <c r="R18" t="n">
-        <v>7055653.88560549</v>
+        <v>7055397.183587011</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2606,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>107112111</v>
+        <v>107112039</v>
       </c>
       <c r="B19" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2622,34 +2600,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477537.1895849766</v>
+        <v>477509.3910873273</v>
       </c>
       <c r="R19" t="n">
-        <v>7055609.184021487</v>
+        <v>7055519.116985272</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2692,6 +2674,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2718,7 +2705,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>107112106</v>
+        <v>107112107</v>
       </c>
       <c r="B20" t="n">
         <v>78569</v>
@@ -2758,10 +2745,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477421.3530807599</v>
+        <v>477611.8551201055</v>
       </c>
       <c r="R20" t="n">
-        <v>7055661.14085223</v>
+        <v>7055716.257913383</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2830,7 +2817,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>107112109</v>
+        <v>107112116</v>
       </c>
       <c r="B21" t="n">
         <v>78569</v>
@@ -2870,10 +2857,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477534.8239992961</v>
+        <v>477426.1717684313</v>
       </c>
       <c r="R21" t="n">
-        <v>7055652.331036292</v>
+        <v>7055525.044468692</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2942,10 +2929,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107112069</v>
+        <v>107112133</v>
       </c>
       <c r="B22" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2958,21 +2945,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2982,10 +2969,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477534.0825439893</v>
+        <v>477562.5450946799</v>
       </c>
       <c r="R22" t="n">
-        <v>7055610.539977368</v>
+        <v>7055731.723995223</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3054,10 +3041,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>107112040</v>
+        <v>107112110</v>
       </c>
       <c r="B23" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3070,42 +3057,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477517.4146231763</v>
+        <v>477525.4374735313</v>
       </c>
       <c r="R23" t="n">
-        <v>7055520.394034193</v>
+        <v>7055584.367129061</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3148,11 +3127,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3179,10 +3153,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>107112137</v>
+        <v>107112068</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>78570</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3195,21 +3169,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3219,10 +3193,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477560.0884589356</v>
+        <v>477536.6048297759</v>
       </c>
       <c r="R24" t="n">
-        <v>7055447.611681611</v>
+        <v>7055652.318414057</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3291,10 +3265,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>107112138</v>
+        <v>107112122</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3307,21 +3281,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3331,10 +3305,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477531.4641039427</v>
+        <v>477504.0044578151</v>
       </c>
       <c r="R25" t="n">
-        <v>7055429.583046003</v>
+        <v>7055450.232564858</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3403,7 +3377,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>107112126</v>
+        <v>107112112</v>
       </c>
       <c r="B26" t="n">
         <v>78569</v>
@@ -3443,10 +3417,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>477525.8721759706</v>
+        <v>477523.9529894217</v>
       </c>
       <c r="R26" t="n">
-        <v>7055394.493573721</v>
+        <v>7055626.174316422</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3515,7 +3489,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>107112121</v>
+        <v>107112102</v>
       </c>
       <c r="B27" t="n">
         <v>78569</v>
@@ -3555,10 +3529,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477506.7800016608</v>
+        <v>477405.4953640634</v>
       </c>
       <c r="R27" t="n">
-        <v>7055464.886846316</v>
+        <v>7055747.512416334</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3627,10 +3601,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>107112117</v>
+        <v>107112135</v>
       </c>
       <c r="B28" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3643,21 +3617,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3667,10 +3641,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>477502.5485816749</v>
+        <v>477498.2951514429</v>
       </c>
       <c r="R28" t="n">
-        <v>7055496.043275498</v>
+        <v>7055524.086966835</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3739,10 +3713,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>107112124</v>
+        <v>107112041</v>
       </c>
       <c r="B29" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3755,34 +3729,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477535.3798649331</v>
+        <v>477516.4363721663</v>
       </c>
       <c r="R29" t="n">
-        <v>7055416.659838526</v>
+        <v>7055445.253015221</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3825,6 +3803,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3851,10 +3834,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>107112077</v>
+        <v>107112123</v>
       </c>
       <c r="B30" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3867,21 +3850,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3891,10 +3874,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>477525.0100635685</v>
+        <v>477531.498774925</v>
       </c>
       <c r="R30" t="n">
-        <v>7055398.501757194</v>
+        <v>7055434.47416525</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3963,10 +3946,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>107112076</v>
+        <v>107112038</v>
       </c>
       <c r="B31" t="n">
-        <v>78570</v>
+        <v>56395</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3979,34 +3962,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>477503.1329211274</v>
+        <v>477482.6016969394</v>
       </c>
       <c r="R31" t="n">
-        <v>7055452.906751771</v>
+        <v>7055508.635393227</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4049,6 +4040,11 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4075,10 +4071,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>107112118</v>
+        <v>107112134</v>
       </c>
       <c r="B32" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4091,21 +4087,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4115,10 +4111,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>477530.8636118677</v>
+        <v>477566.4463293387</v>
       </c>
       <c r="R32" t="n">
-        <v>7055470.496669282</v>
+        <v>7055653.88560549</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4187,7 +4183,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>107112119</v>
+        <v>107112111</v>
       </c>
       <c r="B33" t="n">
         <v>78569</v>
@@ -4227,10 +4223,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>477495.734390176</v>
+        <v>477537.1895849766</v>
       </c>
       <c r="R33" t="n">
-        <v>7055476.971182949</v>
+        <v>7055609.184021487</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4299,7 +4295,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>107112127</v>
+        <v>107112106</v>
       </c>
       <c r="B34" t="n">
         <v>78569</v>
@@ -4339,10 +4335,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>477522.7743878288</v>
+        <v>477421.3530807599</v>
       </c>
       <c r="R34" t="n">
-        <v>7055397.183587011</v>
+        <v>7055661.14085223</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4411,10 +4407,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>107112122</v>
+        <v>107112075</v>
       </c>
       <c r="B35" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4427,21 +4423,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4451,10 +4447,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>477504.0044578151</v>
+        <v>477504.3515901188</v>
       </c>
       <c r="R35" t="n">
-        <v>7055450.232564858</v>
+        <v>7055499.143101555</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4523,10 +4519,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>107112041</v>
+        <v>107112109</v>
       </c>
       <c r="B36" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4539,38 +4535,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>477516.4363721663</v>
+        <v>477534.8239992961</v>
       </c>
       <c r="R36" t="n">
-        <v>7055445.253015221</v>
+        <v>7055652.331036292</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4613,11 +4605,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4644,7 +4631,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>107112123</v>
+        <v>107112120</v>
       </c>
       <c r="B37" t="n">
         <v>78569</v>
@@ -4684,10 +4671,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477531.498774925</v>
+        <v>477497.006951978</v>
       </c>
       <c r="R37" t="n">
-        <v>7055434.47416525</v>
+        <v>7055468.068868866</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4756,7 +4743,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107112075</v>
+        <v>107112069</v>
       </c>
       <c r="B38" t="n">
         <v>78570</v>
@@ -4796,10 +4783,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>477504.3515901188</v>
+        <v>477534.0825439893</v>
       </c>
       <c r="R38" t="n">
-        <v>7055499.143101555</v>
+        <v>7055610.539977368</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4868,10 +4855,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>107112120</v>
+        <v>107112136</v>
       </c>
       <c r="B39" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4884,21 +4871,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4908,10 +4895,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>477497.006951978</v>
+        <v>477584.4676857276</v>
       </c>
       <c r="R39" t="n">
-        <v>7055468.068868866</v>
+        <v>7055495.018222877</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4980,10 +4967,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>107112136</v>
+        <v>107112040</v>
       </c>
       <c r="B40" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4996,34 +4983,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Nilsslåttern Föllinge S, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>477584.4676857276</v>
+        <v>477517.4146231763</v>
       </c>
       <c r="R40" t="n">
-        <v>7055495.018222877</v>
+        <v>7055520.394034193</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5066,6 +5061,11 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
